--- a/src/template.xlsx
+++ b/src/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TransportingPlanning\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805C4E4-9A27-4E9F-8C24-1D8ECD83AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24043D82-578A-4E5E-BF31-4601C0859FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1680" windowWidth="18000" windowHeight="9480" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS.SIC" sheetId="25" r:id="rId1"/>
@@ -619,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,13 +767,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -837,7 +830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1191,11 +1184,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1206,7 +1223,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1219,10 +1236,36 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1231,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,54 +1482,72 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1559,84 +1620,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3069,513 +3053,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2D1FA1-AB11-4EB1-9AEB-15B6DC309B35}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="92" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="91" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="91" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="91" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="87" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="87" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="87" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-    </row>
-    <row r="2" spans="1:8" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+    </row>
+    <row r="2" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="99">
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="101">
         <v>44440</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="88"/>
-    </row>
-    <row r="3" spans="1:8" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" s="85" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="98" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="90"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="97"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="97"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="97"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="97"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="97"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="97"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="97"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="97"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="97"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="97"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="97"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="97"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="97"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="97"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="97"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="97"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="97"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="97"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="97"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="97"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="97"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="97"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="97"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="97"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="91"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="91"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="91"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="91"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="91"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="91"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="91"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="91"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="91"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="91"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="91"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="91"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="90"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="90"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="90"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="90"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="90"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="90"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="90"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="90"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="90"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="90"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="90"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="90"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="90"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="90"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="90"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="90"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="90"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="90"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="90"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="90"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="90"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="90"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="90"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="90"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="90"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="90"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="90"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="90"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="90"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="90"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="90"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="90"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="90"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="90"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="90"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="90"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="90"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="92"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="90"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C24">
-    <sortCondition ref="B2:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C14">
+    <sortCondition ref="B2:B14"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
@@ -3583,69 +3813,34 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F21 B18:C22">
-    <cfRule type="expression" dxfId="84" priority="31" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)+COUNTIF(#REF!, B18)&gt;1,NOT(ISBLANK(B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="83" priority="42" stopIfTrue="1">
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="77" priority="31" stopIfTrue="1">
+      <formula>AND(COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)&gt;1,NOT(ISBLANK(F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C99">
+    <cfRule type="expression" dxfId="76" priority="42" stopIfTrue="1">
       <formula>AND(COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)&gt;1,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="82" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="C4:C99">
+    <cfRule type="expression" dxfId="75" priority="40" stopIfTrue="1">
       <formula>AND(COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)+COUNTIF(#REF!, C4)&gt;1,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="81" priority="41" stopIfTrue="1">
+  <conditionalFormatting sqref="B4:B99">
+    <cfRule type="expression" dxfId="74" priority="41" stopIfTrue="1">
       <formula>AND(COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="80" priority="49" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$11:$B$11, F21)&gt;1,NOT(ISBLANK(F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="79" priority="36" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B4)+COUNTIF($C$16:$C$16, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF($C$11:$C$11, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12 B10:C10 B7:C8">
-    <cfRule type="expression" dxfId="78" priority="32" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B7)+COUNTIF($C$13:$C$13, B7)+COUNTIF($C$17:$C$17, B7)+COUNTIF($C$19:$C$19, B7)+COUNTIF(#REF!, B7)+COUNTIF(#REF!, B7)+COUNTIF($C$9:$C$9, B7)&gt;1,NOT(ISBLANK(B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9 B12:C13">
-    <cfRule type="expression" dxfId="77" priority="33" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)+COUNTIF(#REF!, B9)&gt;1,NOT(ISBLANK(B9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="76" priority="35" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B6)&gt;1,NOT(ISBLANK(B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="75" priority="26" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)+COUNTIF(#REF!, C13)&gt;1,NOT(ISBLANK(C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C15 B14">
-    <cfRule type="expression" dxfId="74" priority="24" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)+COUNTIF(#REF!, B14)&gt;1,NOT(ISBLANK(B14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)+COUNTIF(#REF!, C14)&gt;1,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="72" priority="23" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)+COUNTIF(#REF!, B16)&gt;1,NOT(ISBLANK(B16)))</formula>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="73" priority="49" stopIfTrue="1">
+      <formula>AND(COUNTIF(#REF!, F11)&gt;1,NOT(ISBLANK(F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C99">
+    <cfRule type="expression" dxfId="72" priority="53" stopIfTrue="1">
+      <formula>AND(COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3674,35 +3869,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="115" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="3" spans="2:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
     </row>
     <row r="4" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
@@ -4065,35 +4260,35 @@
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="115" t="s">
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="117"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
     </row>
     <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="126"/>
     </row>
     <row r="28" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
     </row>
     <row r="29" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
@@ -4460,40 +4655,40 @@
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
       <c r="E51" s="67"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
       <c r="H51" s="67"/>
     </row>
     <row r="52" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="112" t="s">
+      <c r="B52" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="115" t="s">
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="G52" s="116"/>
-      <c r="H52" s="117"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
     </row>
     <row r="53" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="106"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="126"/>
     </row>
     <row r="54" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="120"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
     </row>
     <row r="55" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="68" t="s">
@@ -4838,14 +5033,14 @@
     </row>
     <row r="76" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E76" s="22"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
+      <c r="F76" s="119"/>
+      <c r="G76" s="119"/>
       <c r="H76" s="22"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E77" s="21"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="114"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="120"/>
       <c r="H77" s="21"/>
     </row>
   </sheetData>

--- a/src/template.xlsx
+++ b/src/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TransportingPlanning\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TransportingPlanning\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24043D82-578A-4E5E-BF31-4601C0859FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BDA7A7-2F84-4F46-9F5D-DC5BA6580A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="1725" windowWidth="18000" windowHeight="9480" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS.SIC" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="190">
   <si>
     <t>SR</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>Date / Time:</t>
+  </si>
+  <si>
+    <t>Pick up</t>
   </si>
 </sst>
 </file>
@@ -3053,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2D1FA1-AB11-4EB1-9AEB-15B6DC309B35}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3064,14 +3067,14 @@
     <col min="1" max="1" width="4.140625" style="89" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="88" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="87" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="87" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="87" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="87" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="87" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
         <v>187</v>
       </c>
@@ -3082,9 +3085,10 @@
       </c>
       <c r="E1" s="99"/>
       <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
+    </row>
+    <row r="2" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
         <v>188</v>
       </c>
@@ -3095,10 +3099,11 @@
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="1:8" s="85" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="86"/>
+    </row>
+    <row r="3" spans="1:9" s="85" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
       <c r="B3" s="96" t="s">
         <v>183</v>
@@ -3110,16 +3115,19 @@
         <v>182</v>
       </c>
       <c r="E3" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="G3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="H3" s="98" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
@@ -3127,8 +3135,9 @@
       <c r="E4" s="93"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="91"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -3136,8 +3145,9 @@
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="91"/>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
@@ -3145,8 +3155,9 @@
       <c r="E6" s="93"/>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="93"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
@@ -3154,8 +3165,9 @@
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="93"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="91"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
@@ -3163,8 +3175,9 @@
       <c r="E8" s="93"/>
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="92"/>
       <c r="C9" s="92"/>
@@ -3172,8 +3185,9 @@
       <c r="E9" s="93"/>
       <c r="F9" s="93"/>
       <c r="G9" s="93"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="93"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="91"/>
       <c r="B10" s="92"/>
       <c r="C10" s="92"/>
@@ -3181,17 +3195,19 @@
       <c r="E10" s="93"/>
       <c r="F10" s="93"/>
       <c r="G10" s="93"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="93"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="91"/>
       <c r="B11" s="92"/>
       <c r="C11" s="92"/>
       <c r="D11" s="93"/>
       <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="91"/>
       <c r="B12" s="92"/>
       <c r="C12" s="92"/>
@@ -3199,8 +3215,9 @@
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="91"/>
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
@@ -3208,8 +3225,9 @@
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="91"/>
       <c r="B14" s="92"/>
       <c r="C14" s="92"/>
@@ -3217,8 +3235,9 @@
       <c r="E14" s="93"/>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="93"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="91"/>
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
@@ -3226,8 +3245,9 @@
       <c r="E15" s="93"/>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="93"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="91"/>
       <c r="B16" s="92"/>
       <c r="C16" s="92"/>
@@ -3235,8 +3255,9 @@
       <c r="E16" s="93"/>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="91"/>
       <c r="B17" s="92"/>
       <c r="C17" s="92"/>
@@ -3244,8 +3265,9 @@
       <c r="E17" s="93"/>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="91"/>
       <c r="B18" s="92"/>
       <c r="C18" s="92"/>
@@ -3253,8 +3275,9 @@
       <c r="E18" s="93"/>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="93"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="91"/>
       <c r="B19" s="92"/>
       <c r="C19" s="92"/>
@@ -3262,8 +3285,9 @@
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="93"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="91"/>
       <c r="B20" s="92"/>
       <c r="C20" s="92"/>
@@ -3271,8 +3295,9 @@
       <c r="E20" s="93"/>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="93"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="91"/>
       <c r="B21" s="92"/>
       <c r="C21" s="92"/>
@@ -3280,8 +3305,9 @@
       <c r="E21" s="93"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="93"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="91"/>
       <c r="B22" s="92"/>
       <c r="C22" s="92"/>
@@ -3289,8 +3315,9 @@
       <c r="E22" s="93"/>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="93"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="91"/>
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
@@ -3298,8 +3325,9 @@
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="93"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="91"/>
       <c r="B24" s="92"/>
       <c r="C24" s="92"/>
@@ -3307,8 +3335,9 @@
       <c r="E24" s="93"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="91"/>
       <c r="B25" s="92"/>
       <c r="C25" s="92"/>
@@ -3316,8 +3345,9 @@
       <c r="E25" s="93"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="93"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="91"/>
       <c r="B26" s="92"/>
       <c r="C26" s="92"/>
@@ -3325,8 +3355,9 @@
       <c r="E26" s="93"/>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="91"/>
       <c r="B27" s="92"/>
       <c r="C27" s="92"/>
@@ -3334,8 +3365,9 @@
       <c r="E27" s="93"/>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="91"/>
       <c r="B28" s="92"/>
       <c r="C28" s="92"/>
@@ -3343,8 +3375,9 @@
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="91"/>
       <c r="B29" s="92"/>
       <c r="C29" s="92"/>
@@ -3352,8 +3385,9 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="93"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="91"/>
       <c r="B30" s="92"/>
       <c r="C30" s="92"/>
@@ -3361,8 +3395,9 @@
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="93"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="91"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
@@ -3370,8 +3405,9 @@
       <c r="E31" s="93"/>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="93"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="91"/>
       <c r="B32" s="92"/>
       <c r="C32" s="92"/>
@@ -3379,8 +3415,9 @@
       <c r="E32" s="93"/>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="93"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="91"/>
       <c r="B33" s="92"/>
       <c r="C33" s="92"/>
@@ -3388,8 +3425,9 @@
       <c r="E33" s="93"/>
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="93"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="91"/>
       <c r="B34" s="92"/>
       <c r="C34" s="92"/>
@@ -3397,8 +3435,9 @@
       <c r="E34" s="93"/>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="93"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="91"/>
       <c r="B35" s="92"/>
       <c r="C35" s="92"/>
@@ -3406,8 +3445,9 @@
       <c r="E35" s="93"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="93"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="91"/>
       <c r="B36" s="92"/>
       <c r="C36" s="92"/>
@@ -3415,8 +3455,9 @@
       <c r="E36" s="93"/>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="93"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="91"/>
       <c r="B37" s="92"/>
       <c r="C37" s="92"/>
@@ -3424,8 +3465,9 @@
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="93"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="91"/>
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
@@ -3433,8 +3475,9 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="93"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="91"/>
       <c r="B39" s="92"/>
       <c r="C39" s="92"/>
@@ -3442,8 +3485,9 @@
       <c r="E39" s="93"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="93"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="91"/>
       <c r="B40" s="92"/>
       <c r="C40" s="92"/>
@@ -3451,8 +3495,9 @@
       <c r="E40" s="93"/>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="93"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="91"/>
       <c r="B41" s="92"/>
       <c r="C41" s="92"/>
@@ -3460,8 +3505,9 @@
       <c r="E41" s="93"/>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="93"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
       <c r="C42" s="92"/>
@@ -3469,8 +3515,9 @@
       <c r="E42" s="93"/>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="93"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
       <c r="C43" s="92"/>
@@ -3478,8 +3525,9 @@
       <c r="E43" s="93"/>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="93"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
       <c r="C44" s="92"/>
@@ -3487,8 +3535,9 @@
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="93"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
       <c r="C45" s="92"/>
@@ -3496,8 +3545,9 @@
       <c r="E45" s="93"/>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="93"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="91"/>
       <c r="B46" s="92"/>
       <c r="C46" s="92"/>
@@ -3505,8 +3555,9 @@
       <c r="E46" s="93"/>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="93"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="91"/>
       <c r="B47" s="92"/>
       <c r="C47" s="92"/>
@@ -3514,8 +3565,9 @@
       <c r="E47" s="93"/>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="93"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="91"/>
       <c r="B48" s="92"/>
       <c r="C48" s="92"/>
@@ -3523,8 +3575,9 @@
       <c r="E48" s="93"/>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="93"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="91"/>
       <c r="B49" s="92"/>
       <c r="C49" s="92"/>
@@ -3532,8 +3585,9 @@
       <c r="E49" s="93"/>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="93"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="91"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
@@ -3541,8 +3595,9 @@
       <c r="E50" s="93"/>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="93"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
@@ -3550,8 +3605,9 @@
       <c r="E51" s="93"/>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="93"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
       <c r="C52" s="92"/>
@@ -3559,8 +3615,9 @@
       <c r="E52" s="93"/>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="93"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
       <c r="C53" s="92"/>
@@ -3568,8 +3625,9 @@
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="93"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="91"/>
       <c r="B54" s="92"/>
       <c r="C54" s="92"/>
@@ -3577,53 +3635,54 @@
       <c r="E54" s="93"/>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="93"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="92"/>
       <c r="C55" s="92"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
       <c r="B56" s="92"/>
       <c r="C56" s="92"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="92"/>
       <c r="C57" s="92"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="92"/>
       <c r="C58" s="92"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="92"/>
       <c r="C59" s="92"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="92"/>
       <c r="C60" s="92"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="92"/>
       <c r="C61" s="92"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="92"/>
       <c r="C62" s="92"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="B63" s="92"/>
       <c r="C63" s="92"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="B64" s="92"/>
       <c r="C64" s="92"/>
@@ -3808,14 +3867,14 @@
     <sortCondition ref="B2:B14"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="77" priority="31" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)&gt;1,NOT(ISBLANK(F11)))</formula>
+      <formula>AND(COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)+COUNTIF(#REF!, G11)&gt;1,NOT(ISBLANK(G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C99">
@@ -3833,9 +3892,9 @@
       <formula>AND(COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)+COUNTIF(#REF!, B4)&gt;1,NOT(ISBLANK(B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="73" priority="49" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, F11)&gt;1,NOT(ISBLANK(F11)))</formula>
+      <formula>AND(COUNTIF(#REF!, G11)&gt;1,NOT(ISBLANK(G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C99">
